--- a/Data/scenarios/capacity_weight=1/technician_capacity_100-driving_speed_dynamic/diff_slots/window_variants-10/result-10_03_2025_pruned_9098766103_08-10.xlsx
+++ b/Data/scenarios/capacity_weight=1/technician_capacity_100-driving_speed_dynamic/diff_slots/window_variants-10/result-10_03_2025_pruned_9098766103_08-10.xlsx
@@ -517,7 +517,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9098758430</t>
+          <t>9098771428</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>15949</v>
+        <v>1549</v>
       </c>
       <c r="I2">
         <f>IF(E2=E1,H2+I1,H2)</f>
@@ -591,12 +591,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-10T13:47:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-10T14:17:00+00:00</t>
+          <t>2025-03-10T14:00:00+00:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17478</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f>IF(E3=E2,H3+I2,H3)</f>
@@ -645,7 +645,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9098771428</t>
+          <t>9098760682</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -655,12 +655,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-03-10T14:17:00+00:00</t>
+          <t>2025-03-10T14:06:00+00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-10T14:47:00+00:00</t>
+          <t>2025-03-10T15:56:00+00:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.699999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6266</v>
       </c>
       <c r="I4">
         <f>IF(E4=E3,H4+I3,H4)</f>
@@ -687,7 +687,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -719,12 +719,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T15:57:00+00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T16:27:00+00:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>5311</v>
+        <v>1139</v>
       </c>
       <c r="I5">
         <f>IF(E5=E4,H5+I4,H5)</f>
@@ -773,7 +773,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9098766942</t>
+          <t>9098749476</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -783,27 +783,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-03-10T15:37:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-10T16:07:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12787</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7.8</v>
+        <v>0.6</v>
       </c>
       <c r="G6" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>7907</v>
+        <v>4789</v>
       </c>
       <c r="I6">
         <f>IF(E6=E5,H6+I5,H6)</f>
@@ -820,24 +820,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>9098749940</t>
+          <t>9098753741</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T10:35:00+00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-10T10:25:00+00:00</t>
+          <t>2025-03-10T11:05:00+00:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>10830</v>
+        <v>5478</v>
       </c>
       <c r="I7">
         <f>IF(E7=E6,H7+I6,H7)</f>
@@ -884,12 +884,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>ASPİRATÖR</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -901,7 +901,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9098753532</t>
+          <t>9098749898</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-03-10T10:34:00+00:00</t>
+          <t>2025-03-10T11:06:00+00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-10T11:04:00+00:00</t>
+          <t>2025-03-10T11:36:00+00:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>9667</v>
+        <v>1708</v>
       </c>
       <c r="I8">
         <f>IF(E8=E7,H8+I7,H8)</f>
@@ -948,12 +948,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -965,7 +965,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9098754831</t>
+          <t>9098751684</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -975,12 +975,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T11:38:00+00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T12:08:00+00:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -989,13 +989,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>732</v>
+        <v>2348</v>
       </c>
       <c r="I9">
         <f>IF(E9=E8,H9+I8,H9)</f>
@@ -1012,24 +1012,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9098763301</t>
+          <t>9098759869</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>3624</v>
+        <v>440</v>
       </c>
       <c r="I10">
         <f>IF(E10=E9,H10+I9,H10)</f>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1086,14 +1086,14 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9098761951</t>
+          <t>9098763301</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1103,12 +1103,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-03-10T15:31:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-10T15:56:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1117,13 +1117,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>1041</v>
+        <v>2197</v>
       </c>
       <c r="I11">
         <f>IF(E11=E10,H11+I10,H11)</f>
@@ -1140,12 +1140,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>ASPİRATÖR</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.699999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="G12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>8432</v>
+        <v>7928</v>
       </c>
       <c r="I12">
         <f>IF(E12=E11,H12+I11,H12)</f>
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="G13" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H13" t="n">
         <v>8088</v>
@@ -1285,7 +1285,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9098753407</t>
+          <t>9098754566</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1342,14 +1342,14 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9098753100</t>
+          <t>9098755505</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-10T10:31:00+00:00</t>
+          <t>2025-03-10T13:12:00+00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-03-10T10:41:00+00:00</t>
+          <t>2025-03-10T13:22:00+00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1373,13 +1373,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>1088</v>
+        <v>2628</v>
       </c>
       <c r="I15">
         <f>IF(E15=E14,H15+I14,H15)</f>
@@ -1396,24 +1396,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9098758935</t>
+          <t>9098754836</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1423,12 +1423,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T13:26:00+00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T13:56:00+00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>1696</v>
+        <v>4192</v>
       </c>
       <c r="I16">
         <f>IF(E16=E15,H16+I15,H16)</f>
@@ -1477,7 +1477,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9098754836</t>
+          <t>9098758935</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-10T13:31:00+00:00</t>
+          <t>2025-03-10T13:57:00+00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-03-10T14:01:00+00:00</t>
+          <t>2025-03-10T14:27:00+00:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
         <v>1172</v>
@@ -1541,7 +1541,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>9098750204</t>
+          <t>9098754061</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-10T14:03:00+00:00</t>
+          <t>2025-03-10T14:27:00+00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-03-10T14:13:00+00:00</t>
+          <t>2025-03-10T14:37:00+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1565,13 +1565,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>2885</v>
+        <v>643</v>
       </c>
       <c r="I18">
         <f>IF(E18=E17,H18+I17,H18)</f>
@@ -1588,12 +1588,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>9098752563</t>
+          <t>9098764134</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1615,12 +1615,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-10T14:13:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-03-10T14:23:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1629,13 +1629,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>817</v>
+        <v>1915</v>
       </c>
       <c r="I19">
         <f>IF(E19=E18,H19+I18,H19)</f>
@@ -1647,29 +1647,29 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9098754061</t>
+          <t>9098762003</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1679,12 +1679,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-10T14:25:00+00:00</t>
+          <t>2025-03-10T15:31:00+00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-03-10T14:35:00+00:00</t>
+          <t>2025-03-10T16:01:00+00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1693,13 +1693,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
-        <v>2057</v>
+        <v>1900</v>
       </c>
       <c r="I20">
         <f>IF(E20=E19,H20+I19,H20)</f>
@@ -1711,29 +1711,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9098753801</t>
+          <t>9098765649</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1743,27 +1743,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-03-10T14:50:00+00:00</t>
+          <t>2025-03-10T17:10:00+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H21" t="n">
-        <v>2083</v>
+        <v>7621</v>
       </c>
       <c r="I21">
         <f>IF(E21=E20,H21+I20,H21)</f>
@@ -1775,29 +1775,29 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9098762003</t>
+          <t>9098758430</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1821,13 +1821,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.8999999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3527</v>
+        <v>15949</v>
       </c>
       <c r="I22">
         <f>IF(E22=E21,H22+I21,H22)</f>
@@ -1839,29 +1839,29 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9098765649</t>
+          <t>9098753801</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T13:44:00+00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-03-10T17:10:00+00:00</t>
+          <t>2025-03-10T15:34:00+00:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1885,13 +1885,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H23" t="n">
-        <v>7621</v>
+        <v>14078</v>
       </c>
       <c r="I23">
         <f>IF(E23=E22,H23+I22,H23)</f>
@@ -1903,29 +1903,29 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>9098752402</t>
+          <t>9098766942</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1935,27 +1935,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T15:43:00+00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T16:13:00+00:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>1349</v>
+        <v>9603</v>
       </c>
       <c r="I24">
         <f>IF(E24=E23,H24+I23,H24)</f>
@@ -1972,24 +1972,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9098749898</t>
+          <t>9098752402</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1999,12 +1999,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>2025-03-10T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>2025-03-10T10:30:00+00:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2025-03-10T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>913</v>
+        <v>1349</v>
       </c>
       <c r="I25">
         <f>IF(E25=E24,H25+I24,H25)</f>
@@ -2053,7 +2053,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9098764979</t>
+          <t>9098753765</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2063,12 +2063,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2077,13 +2077,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4466</v>
+        <v>241</v>
       </c>
       <c r="I26">
         <f>IF(E26=E25,H26+I25,H26)</f>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2110,14 +2110,14 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9098765148</t>
+          <t>9098758322</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2127,12 +2127,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-10T15:38:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-03-10T16:08:00+00:00</t>
+          <t>2025-03-10T14:00:00+00:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2141,13 +2141,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>8621</v>
+        <v>786</v>
       </c>
       <c r="I27">
         <f>IF(E27=E26,H27+I26,H27)</f>
@@ -2174,14 +2174,14 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9098770596</t>
+          <t>9098764979</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2205,13 +2205,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.3</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
-        <v>6515</v>
+        <v>5188</v>
       </c>
       <c r="I28">
         <f>IF(E28=E27,H28+I27,H28)</f>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2238,14 +2238,14 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9098770144</t>
+          <t>9098765148</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-10T17:32:00+00:00</t>
+          <t>2025-03-10T15:38:00+00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-03-10T18:02:00+00:00</t>
+          <t>2025-03-10T16:08:00+00:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2269,13 +2269,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="G29" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H29" t="n">
-        <v>2958</v>
+        <v>8621</v>
       </c>
       <c r="I29">
         <f>IF(E29=E28,H29+I28,H29)</f>
@@ -2292,24 +2292,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9098770203</t>
+          <t>9098769185</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2319,12 +2319,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-10T18:03:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-03-10T18:33:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2333,13 +2333,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H30" t="n">
-        <v>1560</v>
+        <v>4012</v>
       </c>
       <c r="I30">
         <f>IF(E30=E29,H30+I29,H30)</f>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9098770246</t>
+          <t>9098770596</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2383,12 +2383,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-10T18:46:00+00:00</t>
+          <t>2025-03-10T17:34:00+00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-03-10T19:16:00+00:00</t>
+          <t>2025-03-10T18:04:00+00:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2397,13 +2397,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="G31" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H31" t="n">
-        <v>13182</v>
+        <v>4765</v>
       </c>
       <c r="I31">
         <f>IF(E31=E30,H31+I30,H31)</f>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2437,7 +2437,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9098749376</t>
+          <t>9098770144</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2447,27 +2447,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T18:06:00+00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T18:36:00+00:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H32" t="n">
-        <v>1484</v>
+        <v>2958</v>
       </c>
       <c r="I32">
         <f>IF(E32=E31,H32+I31,H32)</f>
@@ -2479,29 +2479,29 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9098753128</t>
+          <t>9098748007</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-10T10:34:00+00:00</t>
+          <t>2025-03-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-03-10T11:04:00+00:00</t>
+          <t>2025-03-10T08:10:00+00:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>4777</v>
+        <v>11757</v>
       </c>
       <c r="I33">
         <f>IF(E33=E32,H33+I32,H33)</f>
@@ -2543,12 +2543,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2558,14 +2558,14 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9098754566</t>
+          <t>9098753128</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-03-10T13:10:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2589,13 +2589,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8999999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H34" t="n">
-        <v>2407</v>
+        <v>7642</v>
       </c>
       <c r="I34">
         <f>IF(E34=E33,H34+I33,H34)</f>
@@ -2607,29 +2607,29 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9098750078</t>
+          <t>9098749376</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-10T13:11:00+00:00</t>
+          <t>2025-03-10T10:34:00+00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-03-10T13:21:00+00:00</t>
+          <t>2025-03-10T11:04:00+00:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2653,13 +2653,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.8999999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="G35" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H35" t="n">
-        <v>1517</v>
+        <v>4777</v>
       </c>
       <c r="I35">
         <f>IF(E35=E34,H35+I34,H35)</f>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2686,14 +2686,14 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9098764291</t>
+          <t>9098754922</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2703,12 +2703,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2717,13 +2717,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="G36" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H36" t="n">
-        <v>5194</v>
+        <v>4920</v>
       </c>
       <c r="I36">
         <f>IF(E36=E35,H36+I35,H36)</f>
@@ -2735,29 +2735,29 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9098764682</t>
+          <t>9098752563</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2767,12 +2767,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-10T15:35:00+00:00</t>
+          <t>2025-03-10T13:14:00+00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-03-10T15:45:00+00:00</t>
+          <t>2025-03-10T13:24:00+00:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2781,13 +2781,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.7</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H37" t="n">
-        <v>5930</v>
+        <v>4329</v>
       </c>
       <c r="I37">
         <f>IF(E37=E36,H37+I36,H37)</f>
@@ -2804,24 +2804,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9098767903</t>
+          <t>9098763156</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2831,12 +2831,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5.1</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H38" t="n">
-        <v>14076</v>
+        <v>3300</v>
       </c>
       <c r="I38">
         <f>IF(E38=E37,H38+I37,H38)</f>
@@ -2878,14 +2878,14 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9098753741</t>
+          <t>9098764682</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2895,27 +2895,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T15:37:00+00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T15:47:00+00:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H39" t="n">
-        <v>1170</v>
+        <v>7733</v>
       </c>
       <c r="I39">
         <f>IF(E39=E38,H39+I38,H39)</f>
@@ -2927,29 +2927,29 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9098749476</t>
+          <t>9098767903</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2959,27 +2959,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-10T10:35:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-03-10T11:05:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.8999999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H40" t="n">
-        <v>5478</v>
+        <v>14076</v>
       </c>
       <c r="I40">
         <f>IF(E40=E39,H40+I39,H40)</f>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3006,14 +3006,14 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>9098761268</t>
+          <t>9098749940</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3023,12 +3023,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T10:25:00+00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>383</v>
+        <v>10830</v>
       </c>
       <c r="I41">
         <f>IF(E41=E40,H41+I40,H41)</f>
@@ -3060,24 +3060,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>ASPİRATÖR</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>9098823101</t>
+          <t>9098760528</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-03-10T13:33:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025-03-10T14:03:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3101,13 +3101,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="G42" t="n">
         <v>8</v>
       </c>
       <c r="H42" t="n">
-        <v>3627</v>
+        <v>8496</v>
       </c>
       <c r="I42">
         <f>IF(E42=E41,H42+I41,H42)</f>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3141,7 +3141,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>9098760528</t>
+          <t>9098754831</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-03-10T14:04:00+00:00</t>
+          <t>2025-03-10T13:32:00+00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-03-10T14:34:00+00:00</t>
+          <t>2025-03-10T14:02:00+00:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3165,13 +3165,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="G43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H43" t="n">
-        <v>1877</v>
+        <v>2077</v>
       </c>
       <c r="I43">
         <f>IF(E43=E42,H43+I42,H43)</f>
@@ -3205,7 +3205,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>9098753765</t>
+          <t>9098823101</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3215,12 +3215,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-03-10T14:35:00+00:00</t>
+          <t>2025-03-10T14:02:00+00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025-03-10T15:05:00+00:00</t>
+          <t>2025-03-10T14:32:00+00:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3229,13 +3229,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="G44" t="n">
         <v>10</v>
       </c>
       <c r="H44" t="n">
-        <v>1877</v>
+        <v>525</v>
       </c>
       <c r="I44">
         <f>IF(E44=E43,H44+I43,H44)</f>
@@ -3279,12 +3279,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-03-10T15:11:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-03-10T15:41:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G45" t="n">
         <v>16</v>
@@ -3333,7 +3333,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9098764942</t>
+          <t>9098761951</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3343,12 +3343,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-03-10T15:43:00+00:00</t>
+          <t>2025-03-10T15:33:00+00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025-03-10T16:13:00+00:00</t>
+          <t>2025-03-10T15:58:00+00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3357,13 +3357,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="G46" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H46" t="n">
-        <v>2042</v>
+        <v>3722</v>
       </c>
       <c r="I46">
         <f>IF(E46=E45,H46+I45,H46)</f>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ASPİRATÖR</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3407,12 +3407,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-03-10T16:16:00+00:00</t>
+          <t>2025-03-10T15:59:00+00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-03-10T16:46:00+00:00</t>
+          <t>2025-03-10T16:29:00+00:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="G47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H47" t="n">
-        <v>3930</v>
+        <v>1463</v>
       </c>
       <c r="I47">
         <f>IF(E47=E46,H47+I46,H47)</f>
@@ -3485,10 +3485,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="G48" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48" t="n">
         <v>9100</v>
@@ -3525,7 +3525,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>9098752699</t>
+          <t>9098770246</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3535,27 +3535,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T17:37:00+00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-03-10T11:50:00+00:00</t>
+          <t>2025-03-10T18:07:00+00:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>35450</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H49" t="n">
-        <v>1435</v>
+        <v>7859</v>
       </c>
       <c r="I49">
         <f>IF(E49=E48,H49+I48,H49)</f>
@@ -3567,29 +3567,29 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9098753918</t>
+          <t>9098752699</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3599,12 +3599,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-03-10T13:10:00+00:00</t>
+          <t>2025-03-10T11:50:00+00:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3616,10 +3616,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1053</v>
+        <v>1435</v>
       </c>
       <c r="I50">
         <f>IF(E50=E49,H50+I49,H50)</f>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Keşif</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3646,14 +3646,14 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>9098758595</t>
+          <t>9098753918</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3663,12 +3663,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-03-10T13:12:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-03-10T15:02:00+00:00</t>
+          <t>2025-03-10T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3677,13 +3677,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>2139</v>
+        <v>1053</v>
       </c>
       <c r="I51">
         <f>IF(E51=E50,H51+I50,H51)</f>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Keşif</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3717,7 +3717,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>9098748007</t>
+          <t>9098760680</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3727,27 +3727,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-03-10T08:00:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-03-10T08:10:00+00:00</t>
+          <t>2025-03-10T17:10:00+00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>35450</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H52" t="n">
-        <v>11757</v>
+        <v>5801</v>
       </c>
       <c r="I52">
         <f>IF(E52=E51,H52+I51,H52)</f>
@@ -3764,17 +3764,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>10.03.2025 08:00:00-10:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
@@ -3805,13 +3805,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>11058</v>
+        <v>1293</v>
       </c>
       <c r="I53">
         <f>IF(E53=E52,H53+I52,H53)</f>
@@ -3845,7 +3845,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9098752073</t>
+          <t>9098750500</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-10T10:31:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-03-10T11:01:00+00:00</t>
+          <t>2025-03-10T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1517</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <f>IF(E54=E53,H54+I53,H54)</f>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -3933,13 +3933,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.9</v>
+        <v>0.3</v>
       </c>
       <c r="G55" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>800</v>
+        <v>1707</v>
       </c>
       <c r="I55">
         <f>IF(E55=E54,H55+I54,H55)</f>
@@ -3973,7 +3973,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>9098763156</t>
+          <t>9098752073</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3983,12 +3983,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T11:31:00+00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T12:01:00+00:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3997,13 +3997,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
       <c r="G56" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>4298</v>
+        <v>800</v>
       </c>
       <c r="I56">
         <f>IF(E56=E55,H56+I55,H56)</f>
@@ -4030,14 +4030,14 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>9098758736</t>
+          <t>9098755411</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4047,12 +4047,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4061,13 +4061,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="G57" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
-        <v>8115</v>
+        <v>2239</v>
       </c>
       <c r="I57">
         <f>IF(E57=E56,H57+I56,H57)</f>
@@ -4079,12 +4079,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4094,14 +4094,14 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>9098766103</t>
+          <t>9098755293</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4111,27 +4111,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-10T08:00:00+00:00</t>
+          <t>2025-03-10T13:10:00+00:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-03-10T08:30:00+00:00</t>
+          <t>2025-03-10T13:20:00+00:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>6.3</v>
+        <v>0.6</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
-        <v>34960</v>
+        <v>399</v>
       </c>
       <c r="I58">
         <f>IF(E58=E57,H58+I57,H58)</f>
@@ -4143,29 +4143,29 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>10.03.2025 08:00:00-10:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>9098748816</t>
+          <t>9098758736</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4175,27 +4175,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>12.9</v>
+        <v>2.1</v>
       </c>
       <c r="G59" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H59" t="n">
-        <v>37000</v>
+        <v>9624</v>
       </c>
       <c r="I59">
         <f>IF(E59=E58,H59+I58,H59)</f>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4222,14 +4222,14 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>9098758570</t>
+          <t>9098748816</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4239,12 +4239,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4253,13 +4253,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>14.7</v>
+        <v>0.3</v>
       </c>
       <c r="G60" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>10545</v>
+        <v>2266</v>
       </c>
       <c r="I60">
         <f>IF(E60=E59,H60+I59,H60)</f>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4286,14 +4286,14 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>9098762001</t>
+          <t>9098758570</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4303,12 +4303,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-03-10T13:37:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-03-10T14:07:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4317,13 +4317,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>15.9</v>
+        <v>2.1</v>
       </c>
       <c r="G61" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="H61" t="n">
-        <v>7932</v>
+        <v>10545</v>
       </c>
       <c r="I61">
         <f>IF(E61=E60,H61+I60,H61)</f>
@@ -4335,17 +4335,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Özel İstek</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4357,7 +4357,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9098754915</t>
+          <t>9098762001</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T13:37:00+00:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T14:07:00+00:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4381,13 +4381,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>16.2</v>
+        <v>3.3</v>
       </c>
       <c r="G62" t="n">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="H62" t="n">
-        <v>2305</v>
+        <v>7932</v>
       </c>
       <c r="I62">
         <f>IF(E62=E61,H62+I61,H62)</f>
@@ -4404,24 +4404,24 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>9098750566</t>
+          <t>9098754915</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4431,27 +4431,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H63" t="n">
-        <v>1436</v>
+        <v>2305</v>
       </c>
       <c r="I63">
         <f>IF(E63=E62,H63+I62,H63)</f>
@@ -4463,29 +4463,29 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Özel İstek</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>9098751684</t>
+          <t>9098750566</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-03-10T10:31:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-03-10T11:01:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4509,13 +4509,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1720</v>
+        <v>1436</v>
       </c>
       <c r="I64">
         <f>IF(E64=E63,H64+I63,H64)</f>
@@ -4549,7 +4549,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9098759250</t>
+          <t>9098753532</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4559,12 +4559,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-03-10T13:25:00+00:00</t>
+          <t>2025-03-10T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4573,13 +4573,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1064</v>
+        <v>632</v>
       </c>
       <c r="I65">
         <f>IF(E65=E64,H65+I64,H65)</f>
@@ -4596,24 +4596,24 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>9098759869</t>
+          <t>9098759250</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4623,12 +4623,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-03-10T13:26:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-03-10T13:56:00+00:00</t>
+          <t>2025-03-10T13:25:00+00:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4640,10 +4640,10 @@
         <v>0.3</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>1057</v>
+        <v>1962</v>
       </c>
       <c r="I66">
         <f>IF(E66=E65,H66+I65,H66)</f>
@@ -4660,12 +4660,12 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4687,27 +4687,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>2025-03-10T13:26:00+00:00</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>2025-03-10T13:56:00+00:00</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2025-03-10T14:26:00+00:00</t>
-        </is>
-      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>36889</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
-        <v>889</v>
+        <v>1815</v>
       </c>
       <c r="I67">
         <f>IF(E67=E66,H67+I66,H67)</f>
@@ -4741,7 +4741,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>9098758322</t>
+          <t>9098761268</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4751,12 +4751,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-03-10T14:28:00+00:00</t>
+          <t>2025-03-10T13:59:00+00:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-03-10T14:58:00+00:00</t>
+          <t>2025-03-10T14:29:00+00:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4765,13 +4765,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G68" t="n">
         <v>5</v>
       </c>
       <c r="H68" t="n">
-        <v>2044</v>
+        <v>3184</v>
       </c>
       <c r="I68">
         <f>IF(E68=E67,H68+I67,H68)</f>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -4815,12 +4815,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-03-10T15:04:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-03-10T15:34:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4829,13 +4829,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G69" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H69" t="n">
-        <v>6343</v>
+        <v>2554</v>
       </c>
       <c r="I69">
         <f>IF(E69=E68,H69+I68,H69)</f>
@@ -4879,12 +4879,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-03-10T15:36:00+00:00</t>
+          <t>2025-03-10T15:32:00+00:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-03-10T16:06:00+00:00</t>
+          <t>2025-03-10T16:02:00+00:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4893,10 +4893,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="G70" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H70" t="n">
         <v>2684</v>
@@ -4933,7 +4933,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>9098770570</t>
+          <t>9098764942</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4943,12 +4943,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T16:04:00+00:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T16:34:00+00:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4957,13 +4957,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="G71" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H71" t="n">
-        <v>13278</v>
+        <v>2770</v>
       </c>
       <c r="I71">
         <f>IF(E71=E70,H71+I70,H71)</f>
@@ -4990,14 +4990,14 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>9098769185</t>
+          <t>9098770570</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5007,12 +5007,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-03-10T17:36:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-03-10T18:06:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5021,13 +5021,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="G72" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H72" t="n">
-        <v>6665</v>
+        <v>10935</v>
       </c>
       <c r="I72">
         <f>IF(E72=E71,H72+I71,H72)</f>
@@ -5044,12 +5044,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5061,7 +5061,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>9098751581</t>
+          <t>9098770203</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5071,27 +5071,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T17:42:00+00:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T18:12:00+00:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.3</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H73" t="n">
-        <v>1903</v>
+        <v>12349</v>
       </c>
       <c r="I73">
         <f>IF(E73=E72,H73+I72,H73)</f>
@@ -5103,29 +5103,29 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>9098755505</t>
+          <t>9098751581</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5135,12 +5135,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-03-10T13:10:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5152,10 +5152,10 @@
         <v>0.3</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1541</v>
+        <v>1903</v>
       </c>
       <c r="I74">
         <f>IF(E74=E73,H74+I73,H74)</f>
@@ -5167,29 +5167,29 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9098764134</t>
+          <t>9098753407</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5199,12 +5199,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T10:31:00+00:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T11:01:00+00:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5213,13 +5213,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>4418</v>
+        <v>1088</v>
       </c>
       <c r="I75">
         <f>IF(E75=E74,H75+I74,H75)</f>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
@@ -5280,10 +5280,10 @@
         <v>2.1</v>
       </c>
       <c r="G76" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H76" t="n">
-        <v>7835</v>
+        <v>9827</v>
       </c>
       <c r="I76">
         <f>IF(E76=E75,H76+I75,H76)</f>
@@ -5317,7 +5317,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>9098760682</t>
+          <t>9098758595</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5341,13 +5341,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>4958</v>
+        <v>2391</v>
       </c>
       <c r="I77">
         <f>IF(E77=E76,H77+I76,H77)</f>
@@ -5405,13 +5405,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>3251</v>
+        <v>828</v>
       </c>
       <c r="I78">
         <f>IF(E78=E77,H78+I77,H78)</f>
@@ -5445,7 +5445,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>9098753218</t>
+          <t>9098766103</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5455,12 +5455,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T08:30:00+00:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5469,13 +5469,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.6</v>
+        <v>6.3</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>4282</v>
+        <v>34960</v>
       </c>
       <c r="I79">
         <f>IF(E79=E78,H79+I78,H79)</f>
@@ -5502,14 +5502,14 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>9098750500</t>
+          <t>9098753218</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5519,12 +5519,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-03-10T10:33:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-03-10T11:03:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5533,13 +5533,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.2</v>
+        <v>12.9</v>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="H80" t="n">
-        <v>3426</v>
+        <v>36324</v>
       </c>
       <c r="I80">
         <f>IF(E80=E79,H80+I79,H80)</f>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -5583,27 +5583,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>2025-03-10T10:33:00+00:00</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>2025-03-10T11:03:00+00:00</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2025-03-10T11:33:00+00:00</t>
-        </is>
-      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>43480</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.2</v>
+        <v>13.5</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="H81" t="n">
-        <v>573</v>
+        <v>3712</v>
       </c>
       <c r="I81">
         <f>IF(E81=E80,H81+I80,H81)</f>
@@ -5637,7 +5637,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>9098755411</t>
+          <t>9098750078</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5661,13 +5661,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.2</v>
+        <v>13.5</v>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="H82" t="n">
-        <v>1030</v>
+        <v>573</v>
       </c>
       <c r="I82">
         <f>IF(E82=E81,H82+I81,H82)</f>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -5701,7 +5701,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>9098762725</t>
+          <t>9098750204</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5711,12 +5711,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T13:10:00+00:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T13:20:00+00:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5725,13 +5725,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.7</v>
+        <v>13.5</v>
       </c>
       <c r="G83" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H83" t="n">
-        <v>9596</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <f>IF(E83=E82,H83+I82,H83)</f>
@@ -5743,29 +5743,29 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>9098760680</t>
+          <t>9098762725</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-03-10T17:10:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5789,13 +5789,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3.6</v>
+        <v>15.3</v>
       </c>
       <c r="G84" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H84" t="n">
-        <v>5123</v>
+        <v>10288</v>
       </c>
       <c r="I84">
         <f>IF(E84=E83,H84+I83,H84)</f>
@@ -5807,29 +5807,29 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>9098755293</t>
+          <t>9098764291</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5839,27 +5839,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T15:35:00+00:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025-03-10T13:10:00+00:00</t>
+          <t>2025-03-10T16:05:00+00:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>9541</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.3</v>
+        <v>16.2</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H85" t="n">
-        <v>2665</v>
+        <v>5930</v>
       </c>
       <c r="I85">
         <f>IF(E85=E84,H85+I84,H85)</f>
@@ -5871,29 +5871,29 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>9098754922</t>
+          <t>9098753100</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5903,12 +5903,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-03-10T13:12:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-03-10T13:22:00+00:00</t>
+          <t>2025-03-10T10:10:00+00:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -5917,13 +5917,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2680</v>
+        <v>1903</v>
       </c>
       <c r="I86">
         <f>IF(E86=E85,H86+I85,H86)</f>
@@ -5940,17 +5940,17 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6744,13 +6744,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -6772,16 +6772,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6803,13 +6803,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6828,16 +6828,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6853,7 +6853,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -6884,16 +6884,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6915,13 +6915,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6937,16 +6937,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
         <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -6965,7 +6965,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -6999,10 +6999,10 @@
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -7024,13 +7024,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -7077,19 +7077,19 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
         <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -7108,10 +7108,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -7184,10 +7184,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="E24" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -7209,13 +7209,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="D25" t="n">
         <v>30</v>
       </c>
       <c r="E25" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F25" t="n">
         <v>60</v>
@@ -7237,16 +7237,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>90</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -7268,13 +7268,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E27" t="n">
         <v>30</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -7293,16 +7293,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>30</v>
+      </c>
+      <c r="D28" t="n">
         <v>60</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>60</v>
       </c>
       <c r="F28" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
         <v>60</v>
@@ -7349,16 +7349,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
+        <v>25</v>
+      </c>
+      <c r="D30" t="n">
+        <v>90</v>
+      </c>
+      <c r="E30" t="n">
+        <v>85</v>
+      </c>
+      <c r="F30" t="n">
         <v>60</v>
-      </c>
-      <c r="D30" t="n">
-        <v>120</v>
-      </c>
-      <c r="E30" t="n">
-        <v>90</v>
-      </c>
-      <c r="F30" t="n">
-        <v>30</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -7380,13 +7380,13 @@
         <v>110</v>
       </c>
       <c r="D31" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -7402,16 +7402,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D32" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" t="n">
         <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>30</v>
       </c>
       <c r="F32" t="n">
         <v>30</v>
@@ -7430,7 +7430,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>30</v>
@@ -7464,10 +7464,10 @@
         <v>60</v>
       </c>
       <c r="D34" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="E34" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F34" t="n">
         <v>60</v>
@@ -7489,13 +7489,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>30</v>
@@ -7542,19 +7542,19 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>30</v>
+      </c>
+      <c r="C37" t="n">
+        <v>60</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20</v>
+      </c>
+      <c r="E37" t="n">
+        <v>60</v>
+      </c>
+      <c r="F37" t="n">
         <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>90</v>
-      </c>
-      <c r="D37" t="n">
-        <v>10</v>
-      </c>
-      <c r="E37" t="n">
-        <v>30</v>
-      </c>
-      <c r="F37" t="n">
-        <v>10</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -7573,10 +7573,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>10</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>20</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -7690,11 +7690,11 @@
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -7914,11 +7914,11 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -7942,11 +7942,11 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -8082,11 +8082,11 @@
         <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -8278,11 +8278,11 @@
         <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -8306,11 +8306,11 @@
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -8334,11 +8334,11 @@
         <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -8362,11 +8362,11 @@
         <v>4</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -8474,11 +8474,11 @@
         <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -8726,11 +8726,11 @@
         <v>3</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9062,11 +9062,11 @@
         <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -9090,11 +9090,11 @@
         <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9118,11 +9118,11 @@
         <v>4</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9146,11 +9146,11 @@
         <v>4</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9258,11 +9258,11 @@
         <v>4</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -9454,11 +9454,11 @@
         <v>11</v>
       </c>
       <c r="E66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -9650,11 +9650,11 @@
         <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -9678,11 +9678,11 @@
         <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9706,11 +9706,11 @@
         <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9734,11 +9734,11 @@
         <v>4</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9846,11 +9846,11 @@
         <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -9874,11 +9874,11 @@
         <v>4</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9902,11 +9902,11 @@
         <v>4</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9930,11 +9930,11 @@
         <v>4</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10042,11 +10042,11 @@
         <v>4</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -10238,11 +10238,11 @@
         <v>11</v>
       </c>
       <c r="E94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -10434,11 +10434,11 @@
         <v>4</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -10462,11 +10462,11 @@
         <v>4</v>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10518,11 +10518,11 @@
         <v>4</v>
       </c>
       <c r="E104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10630,11 +10630,11 @@
         <v>4</v>
       </c>
       <c r="E108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -10658,11 +10658,11 @@
         <v>4</v>
       </c>
       <c r="E109" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10686,11 +10686,11 @@
         <v>4</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10714,11 +10714,11 @@
         <v>4</v>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10826,11 +10826,11 @@
         <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -10854,11 +10854,11 @@
         <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10910,11 +10910,11 @@
         <v>4</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11022,11 +11022,11 @@
         <v>11</v>
       </c>
       <c r="E122" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -11218,11 +11218,11 @@
         <v>4</v>
       </c>
       <c r="E129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -11246,11 +11246,11 @@
         <v>4</v>
       </c>
       <c r="E130" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11274,11 +11274,11 @@
         <v>4</v>
       </c>
       <c r="E131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11302,11 +11302,11 @@
         <v>4</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11414,11 +11414,11 @@
         <v>4</v>
       </c>
       <c r="E136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -11442,11 +11442,11 @@
         <v>4</v>
       </c>
       <c r="E137" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11470,11 +11470,11 @@
         <v>4</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11498,11 +11498,11 @@
         <v>4</v>
       </c>
       <c r="E139" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11610,11 +11610,11 @@
         <v>4</v>
       </c>
       <c r="E143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -11638,11 +11638,11 @@
         <v>4</v>
       </c>
       <c r="E144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11666,11 +11666,11 @@
         <v>4</v>
       </c>
       <c r="E145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11806,11 +11806,11 @@
         <v>11</v>
       </c>
       <c r="E150" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -12002,11 +12002,11 @@
         <v>4</v>
       </c>
       <c r="E157" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -12030,11 +12030,11 @@
         <v>4</v>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12058,11 +12058,11 @@
         <v>4</v>
       </c>
       <c r="E159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12394,11 +12394,11 @@
         <v>4</v>
       </c>
       <c r="E171" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -12422,11 +12422,11 @@
         <v>4</v>
       </c>
       <c r="E172" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12450,11 +12450,11 @@
         <v>4</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F173" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12478,11 +12478,11 @@
         <v>4</v>
       </c>
       <c r="E174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12590,11 +12590,11 @@
         <v>4</v>
       </c>
       <c r="E178" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -12618,11 +12618,11 @@
         <v>4</v>
       </c>
       <c r="E179" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12646,11 +12646,11 @@
         <v>4</v>
       </c>
       <c r="E180" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12674,11 +12674,11 @@
         <v>4</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12786,11 +12786,11 @@
         <v>4</v>
       </c>
       <c r="E185" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -12814,11 +12814,11 @@
         <v>4</v>
       </c>
       <c r="E186" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12842,11 +12842,11 @@
         <v>4</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F187" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12870,11 +12870,11 @@
         <v>4</v>
       </c>
       <c r="E188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12982,11 +12982,11 @@
         <v>4</v>
       </c>
       <c r="E192" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -13010,11 +13010,11 @@
         <v>4</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F193" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13038,11 +13038,11 @@
         <v>4</v>
       </c>
       <c r="E194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13066,11 +13066,11 @@
         <v>4</v>
       </c>
       <c r="E195" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13374,11 +13374,11 @@
         <v>4</v>
       </c>
       <c r="E206" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -13570,11 +13570,11 @@
         <v>4</v>
       </c>
       <c r="E213" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -13794,11 +13794,11 @@
         <v>4</v>
       </c>
       <c r="E221" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13822,11 +13822,11 @@
         <v>4</v>
       </c>
       <c r="E222" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13850,11 +13850,11 @@
         <v>4</v>
       </c>
       <c r="E223" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13990,11 +13990,11 @@
         <v>4</v>
       </c>
       <c r="E228" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14018,11 +14018,11 @@
         <v>4</v>
       </c>
       <c r="E229" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14046,11 +14046,11 @@
         <v>4</v>
       </c>
       <c r="E230" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14158,11 +14158,11 @@
         <v>4</v>
       </c>
       <c r="E234" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -14186,11 +14186,11 @@
         <v>4</v>
       </c>
       <c r="E235" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14214,11 +14214,11 @@
         <v>4</v>
       </c>
       <c r="E236" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14606,11 +14606,11 @@
         <v>3</v>
       </c>
       <c r="E250" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14942,11 +14942,11 @@
         <v>11</v>
       </c>
       <c r="E262" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -15334,11 +15334,11 @@
         <v>4</v>
       </c>
       <c r="E276" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -15362,11 +15362,11 @@
         <v>4</v>
       </c>
       <c r="E277" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15418,11 +15418,11 @@
         <v>4</v>
       </c>
       <c r="E279" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15754,11 +15754,11 @@
         <v>4</v>
       </c>
       <c r="E291" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F291" s="2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -15922,11 +15922,11 @@
         <v>4</v>
       </c>
       <c r="E297" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -16314,11 +16314,11 @@
         <v>4</v>
       </c>
       <c r="E311" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -16342,11 +16342,11 @@
         <v>4</v>
       </c>
       <c r="E312" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F312" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16398,11 +16398,11 @@
         <v>4</v>
       </c>
       <c r="E314" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16538,11 +16538,11 @@
         <v>3</v>
       </c>
       <c r="E319" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F319" s="2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -16566,11 +16566,11 @@
         <v>3</v>
       </c>
       <c r="E320" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16734,11 +16734,11 @@
         <v>3</v>
       </c>
       <c r="E326" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F326" s="2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -16762,11 +16762,11 @@
         <v>3</v>
       </c>
       <c r="E327" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16902,11 +16902,11 @@
         <v>4</v>
       </c>
       <c r="E332" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -17294,11 +17294,11 @@
         <v>11</v>
       </c>
       <c r="E346" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -17490,11 +17490,11 @@
         <v>11</v>
       </c>
       <c r="E353" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -18274,11 +18274,11 @@
         <v>4</v>
       </c>
       <c r="E381" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -18302,11 +18302,11 @@
         <v>4</v>
       </c>
       <c r="E382" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F382" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18330,11 +18330,11 @@
         <v>4</v>
       </c>
       <c r="E383" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18358,11 +18358,11 @@
         <v>4</v>
       </c>
       <c r="E384" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18470,11 +18470,11 @@
         <v>4</v>
       </c>
       <c r="E388" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -18498,11 +18498,11 @@
         <v>4</v>
       </c>
       <c r="E389" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18554,11 +18554,11 @@
         <v>4</v>
       </c>
       <c r="E391" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18666,11 +18666,11 @@
         <v>4</v>
       </c>
       <c r="E395" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F395" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -18694,11 +18694,11 @@
         <v>4</v>
       </c>
       <c r="E396" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18722,11 +18722,11 @@
         <v>4</v>
       </c>
       <c r="E397" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18750,11 +18750,11 @@
         <v>4</v>
       </c>
       <c r="E398" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18862,11 +18862,11 @@
         <v>4</v>
       </c>
       <c r="E402" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F402" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -18890,11 +18890,11 @@
         <v>4</v>
       </c>
       <c r="E403" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18918,11 +18918,11 @@
         <v>4</v>
       </c>
       <c r="E404" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18946,11 +18946,11 @@
         <v>4</v>
       </c>
       <c r="E405" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19086,11 +19086,11 @@
         <v>4</v>
       </c>
       <c r="E410" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19114,11 +19114,11 @@
         <v>4</v>
       </c>
       <c r="E411" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19142,11 +19142,11 @@
         <v>4</v>
       </c>
       <c r="E412" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19282,11 +19282,11 @@
         <v>4</v>
       </c>
       <c r="E417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -19450,11 +19450,11 @@
         <v>4</v>
       </c>
       <c r="E423" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -19478,11 +19478,11 @@
         <v>4</v>
       </c>
       <c r="E424" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F424" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19534,11 +19534,11 @@
         <v>4</v>
       </c>
       <c r="E426" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19646,11 +19646,11 @@
         <v>4</v>
       </c>
       <c r="E430" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -19674,11 +19674,11 @@
         <v>4</v>
       </c>
       <c r="E431" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F431" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19702,11 +19702,11 @@
         <v>4</v>
       </c>
       <c r="E432" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19730,11 +19730,11 @@
         <v>4</v>
       </c>
       <c r="E433" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19842,11 +19842,11 @@
         <v>4</v>
       </c>
       <c r="E437" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -19870,11 +19870,11 @@
         <v>4</v>
       </c>
       <c r="E438" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F438" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19898,11 +19898,11 @@
         <v>4</v>
       </c>
       <c r="E439" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19926,11 +19926,11 @@
         <v>4</v>
       </c>
       <c r="E440" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20038,11 +20038,11 @@
         <v>11</v>
       </c>
       <c r="E444" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -20234,11 +20234,11 @@
         <v>4</v>
       </c>
       <c r="E451" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F451" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -20262,11 +20262,11 @@
         <v>4</v>
       </c>
       <c r="E452" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20290,11 +20290,11 @@
         <v>4</v>
       </c>
       <c r="E453" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20318,11 +20318,11 @@
         <v>4</v>
       </c>
       <c r="E454" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20430,11 +20430,11 @@
         <v>11</v>
       </c>
       <c r="E458" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -20654,11 +20654,11 @@
         <v>4</v>
       </c>
       <c r="E466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -21018,11 +21018,11 @@
         <v>11</v>
       </c>
       <c r="E479" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F479" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -21214,11 +21214,11 @@
         <v>4</v>
       </c>
       <c r="E486" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F486" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -21410,11 +21410,11 @@
         <v>11</v>
       </c>
       <c r="E493" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -21802,11 +21802,11 @@
         <v>4</v>
       </c>
       <c r="E507" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -21830,11 +21830,11 @@
         <v>4</v>
       </c>
       <c r="E508" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -21886,11 +21886,11 @@
         <v>4</v>
       </c>
       <c r="E510" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -21998,11 +21998,11 @@
         <v>11</v>
       </c>
       <c r="E514" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -22194,11 +22194,11 @@
         <v>4</v>
       </c>
       <c r="E521" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F521" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -22390,11 +22390,11 @@
         <v>11</v>
       </c>
       <c r="E528" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -22614,11 +22614,11 @@
         <v>4</v>
       </c>
       <c r="E536" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -22642,11 +22642,11 @@
         <v>4</v>
       </c>
       <c r="E537" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -22670,11 +22670,11 @@
         <v>4</v>
       </c>
       <c r="E538" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -22978,11 +22978,11 @@
         <v>4</v>
       </c>
       <c r="E549" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -23006,11 +23006,11 @@
         <v>4</v>
       </c>
       <c r="E550" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23034,11 +23034,11 @@
         <v>4</v>
       </c>
       <c r="E551" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23174,11 +23174,11 @@
         <v>4</v>
       </c>
       <c r="E556" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -23202,11 +23202,11 @@
         <v>4</v>
       </c>
       <c r="E557" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F557" s="2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23230,11 +23230,11 @@
         <v>4</v>
       </c>
       <c r="E558" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23258,11 +23258,11 @@
         <v>4</v>
       </c>
       <c r="E559" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23566,11 +23566,11 @@
         <v>4</v>
       </c>
       <c r="E570" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -23762,11 +23762,11 @@
         <v>4</v>
       </c>
       <c r="E577" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F577" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -23958,11 +23958,11 @@
         <v>4</v>
       </c>
       <c r="E584" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -23986,11 +23986,11 @@
         <v>4</v>
       </c>
       <c r="E585" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F585" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24014,11 +24014,11 @@
         <v>4</v>
       </c>
       <c r="E586" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24042,11 +24042,11 @@
         <v>4</v>
       </c>
       <c r="E587" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24154,11 +24154,11 @@
         <v>4</v>
       </c>
       <c r="E591" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -24182,11 +24182,11 @@
         <v>4</v>
       </c>
       <c r="E592" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F592" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24210,11 +24210,11 @@
         <v>4</v>
       </c>
       <c r="E593" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24238,11 +24238,11 @@
         <v>4</v>
       </c>
       <c r="E594" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24340,7 +24340,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46645</v>
+        <v>8954</v>
       </c>
     </row>
     <row r="3">
@@ -24350,7 +24350,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42414</v>
+        <v>32976</v>
       </c>
     </row>
     <row r="4">
@@ -24360,7 +24360,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12488</v>
+        <v>22844</v>
       </c>
     </row>
     <row r="5">
@@ -24370,7 +24370,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13231</v>
+        <v>39630</v>
       </c>
     </row>
     <row r="6">
@@ -24380,7 +24380,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39564</v>
+        <v>27920</v>
       </c>
     </row>
     <row r="7">
@@ -24390,7 +24390,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35385</v>
+        <v>58534</v>
       </c>
     </row>
     <row r="8">
@@ -24400,7 +24400,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35798</v>
+        <v>50386</v>
       </c>
     </row>
     <row r="9">
@@ -24410,7 +24410,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4627</v>
+        <v>8289</v>
       </c>
     </row>
     <row r="10">
@@ -24420,7 +24420,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37545</v>
+        <v>16062</v>
       </c>
     </row>
     <row r="11">
@@ -24430,7 +24430,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92742</v>
+        <v>23048</v>
       </c>
     </row>
     <row r="12">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37180</v>
+        <v>40321</v>
       </c>
     </row>
     <row r="13">
@@ -24450,7 +24450,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15697</v>
+        <v>12818</v>
       </c>
     </row>
     <row r="14">
@@ -24460,7 +24460,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8209</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="15">
@@ -24470,7 +24470,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24030</v>
+        <v>91787</v>
       </c>
     </row>
     <row r="16">
@@ -24480,7 +24480,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5345</v>
+        <v>1903</v>
       </c>
     </row>
   </sheetData>
@@ -24494,7 +24494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3779041.111111111</v>
+        <v>-2933472.466666648</v>
       </c>
     </row>
     <row r="3">
@@ -24531,7 +24531,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84999910</v>
+        <v>84999914.20000002</v>
       </c>
     </row>
     <row r="4">
@@ -24541,7 +24541,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7286784</v>
+        <v>7196672</v>
       </c>
     </row>
     <row r="5">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3111111111111111</v>
+        <v>0.3166666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -24582,6 +24582,16 @@
       </c>
       <c r="B8" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>distance_cost</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>85.79999999999998</v>
       </c>
     </row>
   </sheetData>
